--- a/output/fit_clients/fit_round_310.xlsx
+++ b/output/fit_clients/fit_round_310.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1613902700.811616</v>
+        <v>2456091696.959541</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07287158718375074</v>
+        <v>0.08883559699867667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04339218457365207</v>
+        <v>0.03722822747053153</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>806951294.1076287</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2296470333.527817</v>
+        <v>2276892867.465603</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1247019696315759</v>
+        <v>0.1317857103390024</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04720387533951379</v>
+        <v>0.04062726279796208</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1148235252.742072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4384397079.783358</v>
+        <v>4295923141.650015</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1192977450637404</v>
+        <v>0.1534875055350689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02725237597224004</v>
+        <v>0.03750888449587222</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>112</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2192198581.31426</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2602390708.513403</v>
+        <v>2578391569.469702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08010625789298337</v>
+        <v>0.06918753666425347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04502391377205829</v>
+        <v>0.03729832676891182</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1301195450.446684</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1823922758.142929</v>
+        <v>2292616577.700062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1428235822102691</v>
+        <v>0.1203016377924954</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05376433932709798</v>
+        <v>0.0436198094590564</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>911961427.7247119</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2959281233.709886</v>
+        <v>2350774263.658097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09725308986018119</v>
+        <v>0.09508353513598534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04352313647319544</v>
+        <v>0.04166928894774087</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>97</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1479640585.658346</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2820839562.066672</v>
+        <v>3798758634.782775</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1735967894955574</v>
+        <v>0.1908953197300237</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03218528406126717</v>
+        <v>0.03347794805002568</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>99</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1410419820.234931</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1788049368.771631</v>
+        <v>2257318825.050451</v>
       </c>
       <c r="F9" t="n">
-        <v>0.176397861679528</v>
+        <v>0.15667218426111</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02556706168888606</v>
+        <v>0.03098980121017977</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>894024740.4098134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4538037705.569026</v>
+        <v>4248008758.039886</v>
       </c>
       <c r="F10" t="n">
-        <v>0.179781396949965</v>
+        <v>0.2021307507345199</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05259973381813797</v>
+        <v>0.04029067855127375</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>130</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2269018916.309847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3152275604.047499</v>
+        <v>2868644768.144845</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1681635205039213</v>
+        <v>0.1509537243721827</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04076778961971341</v>
+        <v>0.04255688593668432</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>128</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1576137755.593002</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3056083495.078578</v>
+        <v>2139076751.329454</v>
       </c>
       <c r="F12" t="n">
-        <v>0.160439556088866</v>
+        <v>0.1993104484029994</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03802858719523422</v>
+        <v>0.04164097233668456</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>105</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1528041770.700377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3978767761.673087</v>
+        <v>4694424605.124563</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06508717893497055</v>
+        <v>0.07649949770772306</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02010844533456007</v>
+        <v>0.02074932609286358</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>104</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1989383936.845284</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2809619382.768111</v>
+        <v>3469693981.918718</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1489659506280916</v>
+        <v>0.1217984417897369</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03416954362821556</v>
+        <v>0.04082976043971873</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1404809739.612236</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1407158623.100788</v>
+        <v>1837683193.410187</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1026906187351068</v>
+        <v>0.07138670658848877</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0357294248140439</v>
+        <v>0.04311955007074127</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>703579376.0031658</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2133796281.740577</v>
+        <v>2692307743.309204</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07918412229081576</v>
+        <v>0.1072968628275052</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04300308071244222</v>
+        <v>0.04701163291626909</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>60</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1066898204.403322</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3857197861.752825</v>
+        <v>4719464475.538707</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1178962445404955</v>
+        <v>0.1565219574379091</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04122727432808048</v>
+        <v>0.04699063979543975</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>90</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1928598972.528013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2602311558.671424</v>
+        <v>2770131127.475982</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1449509719370899</v>
+        <v>0.1417590158095454</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02299885194060332</v>
+        <v>0.02745517151803568</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>101</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1301155838.39549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1035352770.885384</v>
+        <v>1284429765.22117</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1537213393921405</v>
+        <v>0.157566460076612</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02222615038624036</v>
+        <v>0.0199045530750093</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>517676423.2935277</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2279387578.225054</v>
+        <v>1836190558.612552</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1449907010978566</v>
+        <v>0.1558153647005934</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02575848407779915</v>
+        <v>0.03077882948405886</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1139693785.701459</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1975677800.015754</v>
+        <v>2039974990.981132</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09978501142009066</v>
+        <v>0.07246608787405931</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02813009510584598</v>
+        <v>0.03724049244875289</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>987838938.3086485</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3575276003.315105</v>
+        <v>3469904242.005176</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1298879397803175</v>
+        <v>0.1277233994665412</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04528143977599623</v>
+        <v>0.05681109690700132</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1787638028.744005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1069167385.007856</v>
+        <v>1099276351.650272</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1351879668662015</v>
+        <v>0.1393385666246507</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04749098619667308</v>
+        <v>0.04863966068013167</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>534583751.0543952</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3051856505.639375</v>
+        <v>2748820551.525023</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1351168493422412</v>
+        <v>0.1330556202302085</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03528318090400342</v>
+        <v>0.03738941525145854</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>90</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1525928284.572277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>906438390.7440488</v>
+        <v>1220259803.437833</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07810283156683739</v>
+        <v>0.08891288775355749</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03054925774024128</v>
+        <v>0.02070470420329948</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>453219280.8796869</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1172315331.135819</v>
+        <v>1115577504.343749</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1084555979969643</v>
+        <v>0.1205625032365781</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02423449410560888</v>
+        <v>0.03477799807669316</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>586157679.8128693</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3965835249.823777</v>
+        <v>4573291526.769824</v>
       </c>
       <c r="F27" t="n">
-        <v>0.110534091125645</v>
+        <v>0.1009412766322025</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02335057366963465</v>
+        <v>0.02374046825973554</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>75</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1982917636.75047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2438806198.8422</v>
+        <v>3770579274.340979</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1190386727658863</v>
+        <v>0.1339382352924556</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04605906971703921</v>
+        <v>0.04180607087312916</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>99</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1219403061.934916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4226368875.51821</v>
+        <v>5655162116.696612</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1127505350309135</v>
+        <v>0.1379779749507753</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04277036588463242</v>
+        <v>0.03768564816896667</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>137</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2113184438.929089</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1713223091.565265</v>
+        <v>1448380491.206607</v>
       </c>
       <c r="F30" t="n">
-        <v>0.11081745545396</v>
+        <v>0.09368337458291026</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03588409476334208</v>
+        <v>0.03923945200008481</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>856611550.5580549</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1139527361.885962</v>
+        <v>1435082362.780683</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08802616266912906</v>
+        <v>0.07983468732916418</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03984996355396762</v>
+        <v>0.03986733088204188</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>569763646.6481855</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1293892728.055553</v>
+        <v>1166838863.984994</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07800726135121488</v>
+        <v>0.1192430838408392</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02515062534698377</v>
+        <v>0.03875055051282639</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>646946389.7073698</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2072631387.883379</v>
+        <v>2244516755.042542</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1988624010282317</v>
+        <v>0.201853240553419</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04345555425465581</v>
+        <v>0.03751600009867742</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>92</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1036315768.533388</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1380458254.798318</v>
+        <v>1426851463.185838</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07622023490466126</v>
+        <v>0.1105394102501997</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02166295038696978</v>
+        <v>0.01905180023733355</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>690229102.8680694</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>892085152.0392895</v>
+        <v>884235132.5283825</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08721984368174034</v>
+        <v>0.104407168184437</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03976787938750638</v>
+        <v>0.03363191249062659</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>446042618.26401</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2116164965.439712</v>
+        <v>2025034199.05419</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1527841506081634</v>
+        <v>0.1545466519937143</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02139287504475095</v>
+        <v>0.02503706300667724</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1058082535.470622</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2488702793.505838</v>
+        <v>2412666985.22592</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06976676556705996</v>
+        <v>0.08070101953161363</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02817700957022487</v>
+        <v>0.04221374004045508</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1244351491.254295</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1963503989.921633</v>
+        <v>1542925126.67303</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08905444750543845</v>
+        <v>0.1041900178770458</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03926388226942101</v>
+        <v>0.03402638433196906</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>981751978.7441498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2181532893.952693</v>
+        <v>1361790834.566916</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1624575298572506</v>
+        <v>0.1501843273563835</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0207273509413713</v>
+        <v>0.02355845123988881</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1090766413.945256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1394278610.880877</v>
+        <v>1378676339.114171</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1342864726844284</v>
+        <v>0.1376241707439307</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04538866802228736</v>
+        <v>0.03976540397399279</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>697139298.112902</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2634480054.67186</v>
+        <v>1794039396.400402</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1391556711277456</v>
+        <v>0.1311399047440024</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03164815788110582</v>
+        <v>0.03614907801691632</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>77</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1317240039.453444</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3216476352.633475</v>
+        <v>4086097972.465637</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1154029134354783</v>
+        <v>0.09917268280829503</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04319396966525393</v>
+        <v>0.03591824450580366</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1608238151.648086</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2795520191.80306</v>
+        <v>2423702082.743611</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1397857092544645</v>
+        <v>0.174754323871761</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02150581363417021</v>
+        <v>0.01894557745898023</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>111</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1397760114.858032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2192988030.454906</v>
+        <v>1555451425.166805</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08973209339567437</v>
+        <v>0.09315114335373742</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03285605776126522</v>
+        <v>0.03166456779197828</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1096494160.070246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1637200916.678355</v>
+        <v>2078268606.577471</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1338552088358266</v>
+        <v>0.1857522156742477</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04990684550677509</v>
+        <v>0.04643151047140034</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>818600412.6780887</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3831352562.034659</v>
+        <v>3837277066.390065</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1613298479334869</v>
+        <v>0.14125476546414</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03744111239144093</v>
+        <v>0.05763061080057121</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>110</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1915676240.909913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3431676028.046387</v>
+        <v>3584676690.217477</v>
       </c>
       <c r="F47" t="n">
-        <v>0.134414775414788</v>
+        <v>0.2017771465588958</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03926897312567817</v>
+        <v>0.04480723575161267</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>83</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1715837980.939562</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3641023885.726524</v>
+        <v>4243515815.176879</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08872285648938792</v>
+        <v>0.07832661249137508</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03569579933850912</v>
+        <v>0.03440767521794227</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>103</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1820511998.125946</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1817576420.328241</v>
+        <v>1706978480.134922</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1885366559366028</v>
+        <v>0.1801990619258073</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04486405156274292</v>
+        <v>0.02925121691913966</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>908788192.8274318</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3947265679.038937</v>
+        <v>4036066931.10248</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1572227275824095</v>
+        <v>0.1148944228908525</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04635406258070119</v>
+        <v>0.04149317075251702</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>105</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1973632831.961921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1368402686.204679</v>
+        <v>966062753.2581663</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1315778691652078</v>
+        <v>0.163090879123444</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0442185771475514</v>
+        <v>0.04228222167353728</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>684201367.3656582</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4678079310.742971</v>
+        <v>3272844754.120782</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1321232651742438</v>
+        <v>0.1322809059918051</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0531742978151134</v>
+        <v>0.05070577263583383</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>128</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2339039671.943073</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3668391012.539783</v>
+        <v>2919059166.61172</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1302418808293502</v>
+        <v>0.1705226120890069</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02794754977373314</v>
+        <v>0.03378896900984393</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>88</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1834195492.554621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3221691603.876341</v>
+        <v>4497885509.521989</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1185727869140654</v>
+        <v>0.1428533139538747</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04828704686289566</v>
+        <v>0.05174320834768338</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1610845804.87468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4102075232.38893</v>
+        <v>3678726340.328853</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1730258486679417</v>
+        <v>0.1485939272289643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02618899931227658</v>
+        <v>0.02574081013507099</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2051037595.61205</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1752918522.96932</v>
+        <v>1435611616.325259</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1555905278806065</v>
+        <v>0.1470338318302503</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03853081584934085</v>
+        <v>0.04100503323676085</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>876459266.2793384</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3713588929.511214</v>
+        <v>3110998136.137059</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1434981311473852</v>
+        <v>0.1558199563157248</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02511065643188511</v>
+        <v>0.02684668161096917</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>98</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1856794529.078954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1792909016.921063</v>
+        <v>1218809559.911659</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1312957195855758</v>
+        <v>0.1418540288438774</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02492951596509531</v>
+        <v>0.02718166071229847</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>896454512.8648835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3769398829.839608</v>
+        <v>3511775149.78743</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08472043744900364</v>
+        <v>0.1042613510903417</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04068625242168606</v>
+        <v>0.04676230741654385</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1884699401.978477</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3043654675.107056</v>
+        <v>3651195368.307227</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1646256575212451</v>
+        <v>0.1859843927872059</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03201646672521263</v>
+        <v>0.03130468328590499</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>96</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1521827412.485193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2436620351.384517</v>
+        <v>2562105929.08315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1707341129374497</v>
+        <v>0.1736682606735311</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03064573000545833</v>
+        <v>0.02986406835432932</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>106</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1218310209.29456</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1852161759.95049</v>
+        <v>1480715862.994191</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1516803683980213</v>
+        <v>0.1621665804285082</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03544700583765089</v>
+        <v>0.03310969997989168</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>926080915.8386827</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3677158808.621827</v>
+        <v>3529916137.15921</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09714120401437393</v>
+        <v>0.06574362794043934</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03216595334282694</v>
+        <v>0.04221779083245153</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>88</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1838579481.103411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3842339727.858491</v>
+        <v>3997531602.179013</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1619571490289555</v>
+        <v>0.1347143689326561</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0316634972819301</v>
+        <v>0.02740818051065578</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>96</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1921169888.709233</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3634767356.615093</v>
+        <v>4988020398.937979</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1436317746479557</v>
+        <v>0.117177497404571</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03086427990151007</v>
+        <v>0.0275431971008663</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>111</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1817383718.6736</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3908414560.940154</v>
+        <v>5488581458.17409</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1477757716655495</v>
+        <v>0.1176133994616558</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04754584505077431</v>
+        <v>0.03932702282297141</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>90</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1954207249.148463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2108840829.405184</v>
+        <v>3101925817.68709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08860898452851412</v>
+        <v>0.06771595521652002</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03614328195575153</v>
+        <v>0.03428971259735428</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>100</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1054420508.421604</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5658122446.782844</v>
+        <v>5281746410.701052</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103936130151537</v>
+        <v>0.120783624821372</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03177466451719539</v>
+        <v>0.05117407730057263</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>100</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2829061319.660547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1734426848.039537</v>
+        <v>2470989704.806673</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1284924800941469</v>
+        <v>0.1214566982427822</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05006920895430862</v>
+        <v>0.04876440220048049</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>867213394.6269162</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2529315305.406055</v>
+        <v>2335375196.077746</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08508876256830658</v>
+        <v>0.06871731186356217</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04841890685359469</v>
+        <v>0.04591454084877331</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>88</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1264657599.138047</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4837344930.27168</v>
+        <v>5230541303.737499</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1404068222671126</v>
+        <v>0.1221969242058199</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02782400618836609</v>
+        <v>0.02959204057957576</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>114</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2418672558.676467</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1806166358.036001</v>
+        <v>1812253401.087085</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07879358092897262</v>
+        <v>0.07450398502455817</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03455642260500926</v>
+        <v>0.03685053520799438</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>903083156.5988927</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3244572831.007221</v>
+        <v>2997959731.339718</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08461053558203863</v>
+        <v>0.07149960417033373</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04898613112808958</v>
+        <v>0.03709434811618119</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>117</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1622286389.088798</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3934374472.623624</v>
+        <v>3463308168.747005</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1366882060087711</v>
+        <v>0.1594646193600051</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02444162793918595</v>
+        <v>0.02829884004897123</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>105</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1967187220.947285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1793509000.551971</v>
+        <v>1718177809.537322</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1396586257264056</v>
+        <v>0.130829353736221</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02573804959688596</v>
+        <v>0.03355014811481995</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>896754483.8222402</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3427313053.810262</v>
+        <v>3246890468.362634</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1242530240104626</v>
+        <v>0.09689256279533123</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0260055678895857</v>
+        <v>0.02146368644098667</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1713656487.638886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2052014859.663175</v>
+        <v>1450868786.652081</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1140696934763341</v>
+        <v>0.1200774739980935</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03129509817448201</v>
+        <v>0.02174514657621343</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1026007499.076961</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4089371439.210104</v>
+        <v>4012389175.010054</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09074657737491158</v>
+        <v>0.1047242894808394</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03792079755854696</v>
+        <v>0.05393813373917136</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>108</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2044685678.955485</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1885963711.376499</v>
+        <v>1416286014.77479</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1309412352878631</v>
+        <v>0.1495702579545881</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03223484617082439</v>
+        <v>0.03782155682860392</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>942981957.3774474</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5061862634.38784</v>
+        <v>3505234449.049316</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1096541748543309</v>
+        <v>0.1108911108167999</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02972736064179277</v>
+        <v>0.02573668824784958</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>65</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2530931369.472075</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3807510798.668833</v>
+        <v>4399602727.95813</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08944685136936319</v>
+        <v>0.1002185769230864</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03211681139378239</v>
+        <v>0.02876086266345957</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1903755355.401345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4859500887.035952</v>
+        <v>3673731267.869367</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1624870921460626</v>
+        <v>0.1759307130212944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0282773700461207</v>
+        <v>0.02160539112943351</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>108</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2429750435.28606</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2011467204.223893</v>
+        <v>1863382565.282202</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1383169724084186</v>
+        <v>0.09853261569026381</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04343688383840873</v>
+        <v>0.0401670544767773</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1005733588.854957</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2596767658.893895</v>
+        <v>1641436768.375767</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1008494647631848</v>
+        <v>0.120805360599454</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05063701302209664</v>
+        <v>0.03530837676386663</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1298383747.036752</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3664975913.116361</v>
+        <v>3390024422.634583</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1548782663437074</v>
+        <v>0.1437527141861024</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04396805812187973</v>
+        <v>0.04710875172022283</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>117</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1832488090.126069</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2720305776.828525</v>
+        <v>2279963022.348484</v>
       </c>
       <c r="F86" t="n">
-        <v>0.107444321003897</v>
+        <v>0.1397345120238392</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0233038712180334</v>
+        <v>0.01658444296550017</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1360153016.208736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1506545210.002545</v>
+        <v>1028114092.373239</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1263261741504051</v>
+        <v>0.1756572161799298</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03225525017180464</v>
+        <v>0.04022944078095184</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>753272739.1557225</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3316761898.349713</v>
+        <v>2368171353.955567</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1725731708471821</v>
+        <v>0.1205477947417352</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03691612828843061</v>
+        <v>0.03238249999736376</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>123</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1658381010.93138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3062517272.456714</v>
+        <v>3227065651.370135</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1245160190087743</v>
+        <v>0.1109856521080895</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03496833083636657</v>
+        <v>0.03927535829954529</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>105</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1531258669.759381</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1368434083.567662</v>
+        <v>1985285183.453747</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09929702270318622</v>
+        <v>0.1318421152227722</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03842028460609449</v>
+        <v>0.03659837461339381</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>684216996.46815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1947661494.187886</v>
+        <v>1889344181.838152</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1448323918507689</v>
+        <v>0.1375906746916579</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05291496256308625</v>
+        <v>0.0516749989619439</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>973830726.3408861</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2277845895.527766</v>
+        <v>2944088878.502098</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07424694169955701</v>
+        <v>0.1011928120253702</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03030776561821363</v>
+        <v>0.03757821842644506</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>81</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1138922914.975749</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3071317744.07356</v>
+        <v>3902152198.463222</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1066421055486106</v>
+        <v>0.1226548960063739</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03418340145776099</v>
+        <v>0.03532632322634491</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1535658932.717501</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2143610257.28165</v>
+        <v>1720803040.765802</v>
       </c>
       <c r="F94" t="n">
-        <v>0.120598045192541</v>
+        <v>0.1594307778143142</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0286215955749251</v>
+        <v>0.03705338893246686</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1071805145.660854</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2994190633.521632</v>
+        <v>2737513393.903199</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1046949801098343</v>
+        <v>0.1054052683799793</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04268128115943749</v>
+        <v>0.03913558100623554</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>75</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1497095316.921729</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2207396420.110253</v>
+        <v>1852646986.306534</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1125722098862522</v>
+        <v>0.1067260080678473</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04441007611506102</v>
+        <v>0.04671578969354635</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1103698174.898868</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5125891490.812977</v>
+        <v>3581316364.36697</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1398158242531057</v>
+        <v>0.1311362806582007</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0235024574238184</v>
+        <v>0.02756817747632097</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2562945892.328671</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2917478547.461823</v>
+        <v>2580839200.855186</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1145223903365587</v>
+        <v>0.07865123919757808</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02429712106647184</v>
+        <v>0.02727550375987369</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1458739252.823011</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2738697098.173974</v>
+        <v>2277113254.85506</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1132368965406258</v>
+        <v>0.1124896768280498</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03111002604207915</v>
+        <v>0.03038925002870174</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1369348516.082603</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3313877616.108746</v>
+        <v>2896394423.01891</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1754216542896487</v>
+        <v>0.1256575730434057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02488704254143199</v>
+        <v>0.02531472827501681</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1656938823.953452</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3529355546.708177</v>
+        <v>3144524798.88922</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1611198110144925</v>
+        <v>0.1382617258981846</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04814451794918832</v>
+        <v>0.05385386580676069</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>123</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1764677932.354698</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_310.xlsx
+++ b/output/fit_clients/fit_round_310.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2456091696.959541</v>
+        <v>1971464023.556348</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08883559699867667</v>
+        <v>0.07592965135718717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03722822747053153</v>
+        <v>0.03681907676423997</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2276892867.465603</v>
+        <v>2578711539.487437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1317857103390024</v>
+        <v>0.1369296881428221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04062726279796208</v>
+        <v>0.0491771951670361</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4295923141.650015</v>
+        <v>3475021019.864993</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1534875055350689</v>
+        <v>0.1108363574789968</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03750888449587222</v>
+        <v>0.0277172755341663</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2578391569.469702</v>
+        <v>3936967755.497579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06918753666425347</v>
+        <v>0.09227954737135854</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03729832676891182</v>
+        <v>0.04351175268564283</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2292616577.700062</v>
+        <v>1966423507.508643</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1203016377924954</v>
+        <v>0.1445988705268408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0436198094590564</v>
+        <v>0.04484639222731963</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2350774263.658097</v>
+        <v>2119297874.617635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09508353513598534</v>
+        <v>0.0626045862427751</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04166928894774087</v>
+        <v>0.04760473235728123</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3798758634.782775</v>
+        <v>3427777728.352046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1908953197300237</v>
+        <v>0.2160044827455369</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03347794805002568</v>
+        <v>0.03292527007174428</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2257318825.050451</v>
+        <v>1868917688.258529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.15667218426111</v>
+        <v>0.1846005195317953</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03098980121017977</v>
+        <v>0.02436245660896711</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4248008758.039886</v>
+        <v>5323845069.761167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2021307507345199</v>
+        <v>0.1404378210044149</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04029067855127375</v>
+        <v>0.03311934556399794</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2868644768.144845</v>
+        <v>3512571570.754401</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1509537243721827</v>
+        <v>0.1871162793049798</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04255688593668432</v>
+        <v>0.04379706084943248</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2139076751.329454</v>
+        <v>2480048251.544958</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1993104484029994</v>
+        <v>0.1942797047998138</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04164097233668456</v>
+        <v>0.04733414867744799</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4694424605.124563</v>
+        <v>5256404095.581653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07649949770772306</v>
+        <v>0.0944091991608647</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02074932609286358</v>
+        <v>0.02914794326949401</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3469693981.918718</v>
+        <v>3516007438.143653</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1217984417897369</v>
+        <v>0.1246982055503879</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04082976043971873</v>
+        <v>0.02704900651003523</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1837683193.410187</v>
+        <v>1264358943.250783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07138670658848877</v>
+        <v>0.0803625478863022</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04311955007074127</v>
+        <v>0.04895586695612434</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2692307743.309204</v>
+        <v>2267716353.095245</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1072968628275052</v>
+        <v>0.1058128372091522</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04701163291626909</v>
+        <v>0.03304113142750053</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4719464475.538707</v>
+        <v>4809729972.159794</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1565219574379091</v>
+        <v>0.1552770326983892</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04699063979543975</v>
+        <v>0.04209839977925679</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2770131127.475982</v>
+        <v>3882951006.897457</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1417590158095454</v>
+        <v>0.1236406896322503</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02745517151803568</v>
+        <v>0.02449045834921342</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1284429765.22117</v>
+        <v>882670928.2487417</v>
       </c>
       <c r="F19" t="n">
-        <v>0.157566460076612</v>
+        <v>0.1590954124907507</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0199045530750093</v>
+        <v>0.02261489229269676</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1836190558.612552</v>
+        <v>2064247508.443401</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1558153647005934</v>
+        <v>0.1120904841796773</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03077882948405886</v>
+        <v>0.02556715029660794</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2039974990.981132</v>
+        <v>1743849875.277374</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07246608787405931</v>
+        <v>0.06472206937041548</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03724049244875289</v>
+        <v>0.04342137072823438</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3469904242.005176</v>
+        <v>3031656073.1973</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1277233994665412</v>
+        <v>0.1334655500711149</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05681109690700132</v>
+        <v>0.04634727588995836</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1099276351.650272</v>
+        <v>949183172.8880422</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1393385666246507</v>
+        <v>0.1241339363864737</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04863966068013167</v>
+        <v>0.05120067981758466</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2748820551.525023</v>
+        <v>2745546132.309175</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1330556202302085</v>
+        <v>0.1371934220903366</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03738941525145854</v>
+        <v>0.03090187549627053</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1220259803.437833</v>
+        <v>981927366.4605409</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08891288775355749</v>
+        <v>0.1018055434111596</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02070470420329948</v>
+        <v>0.02182504486572314</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1115577504.343749</v>
+        <v>1176108015.106019</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1205625032365781</v>
+        <v>0.1195339392131528</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03477799807669316</v>
+        <v>0.02893783430174113</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4573291526.769824</v>
+        <v>3839435306.377757</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1009412766322025</v>
+        <v>0.111337507165093</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02374046825973554</v>
+        <v>0.02071287559708303</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3770579274.340979</v>
+        <v>3690352116.218894</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1339382352924556</v>
+        <v>0.1398669615741897</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04180607087312916</v>
+        <v>0.04603283403786234</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5655162116.696612</v>
+        <v>3886112196.96385</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1379779749507753</v>
+        <v>0.107331232691411</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03768564816896667</v>
+        <v>0.04199650795505996</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1448380491.206607</v>
+        <v>1486595151.844842</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09368337458291026</v>
+        <v>0.092094921061281</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03923945200008481</v>
+        <v>0.03431553507738273</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1435082362.780683</v>
+        <v>926860801.9549352</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07983468732916418</v>
+        <v>0.08628362193664992</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03986733088204188</v>
+        <v>0.04172821655271166</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1166838863.984994</v>
+        <v>1519851998.759951</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1192430838408392</v>
+        <v>0.0968835596011962</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03875055051282639</v>
+        <v>0.03075061519396466</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2244516755.042542</v>
+        <v>2117590063.77134</v>
       </c>
       <c r="F33" t="n">
-        <v>0.201853240553419</v>
+        <v>0.1863922278744096</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03751600009867742</v>
+        <v>0.06032873349365091</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1426851463.185838</v>
+        <v>983583620.4232948</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1105394102501997</v>
+        <v>0.100836471946509</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01905180023733355</v>
+        <v>0.01752464068041761</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>884235132.5283825</v>
+        <v>1074354037.334174</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104407168184437</v>
+        <v>0.1070540668842917</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03363191249062659</v>
+        <v>0.02920845238699748</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2025034199.05419</v>
+        <v>2644370089.433967</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1545466519937143</v>
+        <v>0.1578873385555455</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02503706300667724</v>
+        <v>0.02188950766101028</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2412666985.22592</v>
+        <v>2453814909.943685</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08070101953161363</v>
+        <v>0.09708545391469403</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04221374004045508</v>
+        <v>0.02779774804976471</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1542925126.67303</v>
+        <v>2075671947.856294</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1041900178770458</v>
+        <v>0.1108039107388205</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03402638433196906</v>
+        <v>0.03616183698783888</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1361790834.566916</v>
+        <v>2189721734.414859</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1501843273563835</v>
+        <v>0.1607863748484357</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02355845123988881</v>
+        <v>0.0321902936915489</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1378676339.114171</v>
+        <v>1279372344.290961</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1376241707439307</v>
+        <v>0.1213253675418696</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03976540397399279</v>
+        <v>0.04803658597088113</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1794039396.400402</v>
+        <v>2018835171.201091</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1311399047440024</v>
+        <v>0.1445441719330448</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03614907801691632</v>
+        <v>0.03657399254452531</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4086097972.465637</v>
+        <v>3917383303.247466</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09917268280829503</v>
+        <v>0.09168933595854667</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03591824450580366</v>
+        <v>0.04669605123373886</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2423702082.743611</v>
+        <v>2053001828.454057</v>
       </c>
       <c r="F43" t="n">
-        <v>0.174754323871761</v>
+        <v>0.196730181822843</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01894557745898023</v>
+        <v>0.01574605251637853</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1555451425.166805</v>
+        <v>1975976539.394875</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09315114335373742</v>
+        <v>0.09412358224180402</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03166456779197828</v>
+        <v>0.02647579660468083</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2078268606.577471</v>
+        <v>1745530475.848205</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1857522156742477</v>
+        <v>0.1711917176849357</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04643151047140034</v>
+        <v>0.04684327941756421</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3837277066.390065</v>
+        <v>4022906934.413539</v>
       </c>
       <c r="F46" t="n">
-        <v>0.14125476546414</v>
+        <v>0.1292950668867552</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05763061080057121</v>
+        <v>0.04629188765423954</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3584676690.217477</v>
+        <v>4448311742.179666</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2017771465588958</v>
+        <v>0.1616787306593979</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04480723575161267</v>
+        <v>0.04473044984955049</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4243515815.176879</v>
+        <v>3414409836.092454</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07832661249137508</v>
+        <v>0.0850132565554729</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03440767521794227</v>
+        <v>0.02581128189975059</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1706978480.134922</v>
+        <v>1687017920.43104</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1801990619258073</v>
+        <v>0.1591940835278481</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02925121691913966</v>
+        <v>0.03015773661243573</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4036066931.10248</v>
+        <v>3895655464.512568</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1148944228908525</v>
+        <v>0.1539468665287352</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04149317075251702</v>
+        <v>0.03463360206148038</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>966062753.2581663</v>
+        <v>1392464392.124475</v>
       </c>
       <c r="F51" t="n">
-        <v>0.163090879123444</v>
+        <v>0.1843056473866413</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04228222167353728</v>
+        <v>0.03626028170413146</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3272844754.120782</v>
+        <v>3450123337.225343</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1322809059918051</v>
+        <v>0.0938264300099919</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05070577263583383</v>
+        <v>0.04863501411985604</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2919059166.61172</v>
+        <v>3531196008.390409</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1705226120890069</v>
+        <v>0.1247392786154949</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03378896900984393</v>
+        <v>0.03422878836734222</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4497885509.521989</v>
+        <v>4596612833.653752</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1428533139538747</v>
+        <v>0.1517290933206084</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05174320834768338</v>
+        <v>0.03696566478070028</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3678726340.328853</v>
+        <v>3469122709.492952</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1485939272289643</v>
+        <v>0.1529606713148373</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02574081013507099</v>
+        <v>0.02661227638091499</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1435611616.325259</v>
+        <v>1722298984.983466</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1470338318302503</v>
+        <v>0.1469516735696684</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04100503323676085</v>
+        <v>0.03865369162323158</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3110998136.137059</v>
+        <v>3062425848.421234</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1558199563157248</v>
+        <v>0.1583206685566298</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02684668161096917</v>
+        <v>0.0243302341189495</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1218809559.911659</v>
+        <v>1608534481.560771</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1418540288438774</v>
+        <v>0.1781374746028057</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02718166071229847</v>
+        <v>0.0270465890239598</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3511775149.78743</v>
+        <v>3339517689.054772</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1042613510903417</v>
+        <v>0.1061329359482029</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04676230741654385</v>
+        <v>0.0318617835062894</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3651195368.307227</v>
+        <v>2865933494.714008</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1859843927872059</v>
+        <v>0.1266678624694675</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03130468328590499</v>
+        <v>0.02746031234390343</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2562105929.08315</v>
+        <v>2265008679.29489</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1736682606735311</v>
+        <v>0.1282431039141402</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02986406835432932</v>
+        <v>0.02217133291059854</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1480715862.994191</v>
+        <v>1902169109.111487</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1621665804285082</v>
+        <v>0.1379794475658939</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03310969997989168</v>
+        <v>0.03947447432992319</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3529916137.15921</v>
+        <v>3748315874.014482</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06574362794043934</v>
+        <v>0.09889202126503056</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04221779083245153</v>
+        <v>0.03842603247073575</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3997531602.179013</v>
+        <v>4711361180.095961</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1347143689326561</v>
+        <v>0.1879021880243396</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02740818051065578</v>
+        <v>0.03505468457039815</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4988020398.937979</v>
+        <v>5095818379.790315</v>
       </c>
       <c r="F65" t="n">
-        <v>0.117177497404571</v>
+        <v>0.1622490659524097</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0275431971008663</v>
+        <v>0.03161590904395487</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5488581458.17409</v>
+        <v>5233055287.055638</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1176133994616558</v>
+        <v>0.1072356611626996</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03932702282297141</v>
+        <v>0.0430796404407791</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3101925817.68709</v>
+        <v>2469790279.385041</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06771595521652002</v>
+        <v>0.06283460518773293</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03428971259735428</v>
+        <v>0.04270465836541039</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5281746410.701052</v>
+        <v>5977179498.058612</v>
       </c>
       <c r="F68" t="n">
-        <v>0.120783624821372</v>
+        <v>0.1057505494387274</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05117407730057263</v>
+        <v>0.05152023933191143</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2470989704.806673</v>
+        <v>1957933460.407505</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1214566982427822</v>
+        <v>0.1276919408815372</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04876440220048049</v>
+        <v>0.05274440984583563</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2335375196.077746</v>
+        <v>2599004189.010923</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06871731186356217</v>
+        <v>0.09323068448889427</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04591454084877331</v>
+        <v>0.03329322604980497</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5230541303.737499</v>
+        <v>3806688242.776025</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1221969242058199</v>
+        <v>0.1547852008931264</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02959204057957576</v>
+        <v>0.0285340122471664</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1812253401.087085</v>
+        <v>1420300435.44075</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07450398502455817</v>
+        <v>0.1020325635177674</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03685053520799438</v>
+        <v>0.04821009341959195</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2997959731.339718</v>
+        <v>2887013193.629942</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07149960417033373</v>
+        <v>0.09465168509233794</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03709434811618119</v>
+        <v>0.04923898385667237</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3463308168.747005</v>
+        <v>3573851076.103135</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1594646193600051</v>
+        <v>0.1836390043866394</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02829884004897123</v>
+        <v>0.02858454074964805</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1718177809.537322</v>
+        <v>2435911431.852265</v>
       </c>
       <c r="F75" t="n">
-        <v>0.130829353736221</v>
+        <v>0.1569696178795927</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03355014811481995</v>
+        <v>0.02551731968423384</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3246890468.362634</v>
+        <v>5076410728.985009</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09689256279533123</v>
+        <v>0.1049022302062377</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02146368644098667</v>
+        <v>0.02715679262481128</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1450868786.652081</v>
+        <v>2303695017.88813</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1200774739980935</v>
+        <v>0.1594594478017598</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02174514657621343</v>
+        <v>0.02055239141564081</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4012389175.010054</v>
+        <v>4615379692.783508</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1047242894808394</v>
+        <v>0.131046012255758</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05393813373917136</v>
+        <v>0.03487004936061367</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1416286014.77479</v>
+        <v>1357002744.899471</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1495702579545881</v>
+        <v>0.128157267038662</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03782155682860392</v>
+        <v>0.03666102580954132</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3505234449.049316</v>
+        <v>5317688062.308223</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1108911108167999</v>
+        <v>0.09926176661421604</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02573668824784958</v>
+        <v>0.03035536309277977</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4399602727.95813</v>
+        <v>4050317765.323648</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1002185769230864</v>
+        <v>0.09024890591026417</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02876086266345957</v>
+        <v>0.02006508941317215</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3673731267.869367</v>
+        <v>5267955031.985305</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1759307130212944</v>
+        <v>0.187705050238867</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02160539112943351</v>
+        <v>0.02439472045382718</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1863382565.282202</v>
+        <v>1940986519.829976</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09853261569026381</v>
+        <v>0.1437590754451115</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0401670544767773</v>
+        <v>0.0381870349921846</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1641436768.375767</v>
+        <v>2083738455.529174</v>
       </c>
       <c r="F84" t="n">
-        <v>0.120805360599454</v>
+        <v>0.1105462677748443</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03530837676386663</v>
+        <v>0.04708308888055189</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3390024422.634583</v>
+        <v>3531512979.251509</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1437527141861024</v>
+        <v>0.173507341379764</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04710875172022283</v>
+        <v>0.0435680448521508</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2279963022.348484</v>
+        <v>2715489411.29795</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1397345120238392</v>
+        <v>0.1167743985510833</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01658444296550017</v>
+        <v>0.01886185607383625</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1028114092.373239</v>
+        <v>988696663.9802368</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1756572161799298</v>
+        <v>0.1537767802320706</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04022944078095184</v>
+        <v>0.02745662586488178</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2368171353.955567</v>
+        <v>2374168874.584816</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1205477947417352</v>
+        <v>0.1535249596378161</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03238249999736376</v>
+        <v>0.03805451703383714</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3227065651.370135</v>
+        <v>2583558663.952751</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1109856521080895</v>
+        <v>0.1170027813959521</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03927535829954529</v>
+        <v>0.02623930347022502</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1985285183.453747</v>
+        <v>1837514141.007084</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1318421152227722</v>
+        <v>0.1297390698266271</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03659837461339381</v>
+        <v>0.04829637999769753</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1889344181.838152</v>
+        <v>1360993552.896576</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1375906746916579</v>
+        <v>0.1901112148494743</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0516749989619439</v>
+        <v>0.0611594306949267</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2944088878.502098</v>
+        <v>2092969655.027763</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1011928120253702</v>
+        <v>0.0988825116712312</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03757821842644506</v>
+        <v>0.03594766798282249</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3902152198.463222</v>
+        <v>4921371989.832272</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1226548960063739</v>
+        <v>0.08926855669274004</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03532632322634491</v>
+        <v>0.04052772767669154</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1720803040.765802</v>
+        <v>2381985391.388662</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1594307778143142</v>
+        <v>0.130556053778056</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03705338893246686</v>
+        <v>0.04002464123545265</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2737513393.903199</v>
+        <v>2480863942.729235</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1054052683799793</v>
+        <v>0.1195687059854937</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03913558100623554</v>
+        <v>0.04009329453280111</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1852646986.306534</v>
+        <v>1828492629.14275</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1067260080678473</v>
+        <v>0.1170917747616137</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04671578969354635</v>
+        <v>0.03065032993692575</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3581316364.36697</v>
+        <v>3742913107.042212</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1311362806582007</v>
+        <v>0.126743280319513</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02756817747632097</v>
+        <v>0.02697523446845675</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2580839200.855186</v>
+        <v>3716933983.245078</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07865123919757808</v>
+        <v>0.09760685665939134</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02727550375987369</v>
+        <v>0.03117436147738751</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2277113254.85506</v>
+        <v>2713786531.646965</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1124896768280498</v>
+        <v>0.1124423021884891</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03038925002870174</v>
+        <v>0.02669835459916564</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2896394423.01891</v>
+        <v>2902264167.801053</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1256575730434057</v>
+        <v>0.108212383290211</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02531472827501681</v>
+        <v>0.0207193784069384</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3144524798.88922</v>
+        <v>3567245251.941527</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1382617258981846</v>
+        <v>0.1546855894929402</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05385386580676069</v>
+        <v>0.03601235938586195</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_310.xlsx
+++ b/output/fit_clients/fit_round_310.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1971464023.556348</v>
+        <v>2374629379.311693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07592965135718717</v>
+        <v>0.07039350819879832</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03681907676423997</v>
+        <v>0.03378221259565676</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2578711539.487437</v>
+        <v>1762053356.569067</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1369296881428221</v>
+        <v>0.1409404076909473</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0491771951670361</v>
+        <v>0.04787335869299429</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3475021019.864993</v>
+        <v>3494556201.151519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1108363574789968</v>
+        <v>0.1612531661785701</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0277172755341663</v>
+        <v>0.02549876678565646</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>163</v>
+      </c>
+      <c r="J4" t="n">
+        <v>309</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69.24998019001521</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3936967755.497579</v>
+        <v>3203946775.025458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09227954737135854</v>
+        <v>0.08111148403511274</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04351175268564283</v>
+        <v>0.04925797085214599</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1966423507.508643</v>
+        <v>2089602280.427172</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1445988705268408</v>
+        <v>0.1402287952892043</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04484639222731963</v>
+        <v>0.04314983171724657</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2119297874.617635</v>
+        <v>2130430094.980946</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0626045862427751</v>
+        <v>0.0889978299625498</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04760473235728123</v>
+        <v>0.03216483126783879</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3427777728.352046</v>
+        <v>2570355030.235097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2160044827455369</v>
+        <v>0.2173342740234237</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03292527007174428</v>
+        <v>0.02357195547962948</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>309</v>
+      </c>
+      <c r="K8" t="n">
+        <v>43.54590687298317</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1868917688.258529</v>
+        <v>1673977138.118708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1846005195317953</v>
+        <v>0.1381396516065008</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02436245660896711</v>
+        <v>0.03132074899932259</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5323845069.761167</v>
+        <v>5015884892.216177</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1404378210044149</v>
+        <v>0.1993272652584004</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03311934556399794</v>
+        <v>0.033752454525693</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>272</v>
+      </c>
+      <c r="J10" t="n">
+        <v>310</v>
+      </c>
+      <c r="K10" t="n">
+        <v>80.25219697808468</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3512571570.754401</v>
+        <v>3220912918.339253</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1871162793049798</v>
+        <v>0.1173578195545634</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04379706084943248</v>
+        <v>0.0369407068445674</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>124</v>
+      </c>
+      <c r="J11" t="n">
+        <v>308</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2480048251.544958</v>
+        <v>2143630721.438522</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1942797047998138</v>
+        <v>0.1509460333518806</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04733414867744799</v>
+        <v>0.04830231727383454</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5256404095.581653</v>
+        <v>3248227603.657602</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0944091991608647</v>
+        <v>0.06596812522800655</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02914794326949401</v>
+        <v>0.02226165479943665</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>160</v>
+      </c>
+      <c r="J13" t="n">
+        <v>308</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3516007438.143653</v>
+        <v>3887961282.065187</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1246982055503879</v>
+        <v>0.1337424036018063</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02704900651003523</v>
+        <v>0.03753257497938239</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>64</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1264358943.250783</v>
+        <v>1346776536.548647</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0803625478863022</v>
+        <v>0.07949060888427409</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04895586695612434</v>
+        <v>0.0329551776155606</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2267716353.095245</v>
+        <v>2286452268.684179</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1058128372091522</v>
+        <v>0.113749128640393</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03304113142750053</v>
+        <v>0.0369787378503318</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4809729972.159794</v>
+        <v>3261594250.158818</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1552770326983892</v>
+        <v>0.1692028596986998</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04209839977925679</v>
+        <v>0.03893275279757018</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>146</v>
+      </c>
+      <c r="J17" t="n">
+        <v>307</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3882951006.897457</v>
+        <v>2733548463.286966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1236406896322503</v>
+        <v>0.1356245494816038</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02449045834921342</v>
+        <v>0.03386669800140509</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>309</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50.24013173473499</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>882670928.2487417</v>
+        <v>1126108012.207606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1590954124907507</v>
+        <v>0.1801423780502898</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02261489229269676</v>
+        <v>0.02728264755160929</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2064247508.443401</v>
+        <v>2057404574.998956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1120904841796773</v>
+        <v>0.1037396841929318</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02556715029660794</v>
+        <v>0.02884801212490209</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1743849875.277374</v>
+        <v>2176052063.372827</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06472206937041548</v>
+        <v>0.06314250069994183</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04342137072823438</v>
+        <v>0.04599464412210759</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3031656073.1973</v>
+        <v>3539446871.255165</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1334655500711149</v>
+        <v>0.1433820672870113</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04634727588995836</v>
+        <v>0.0484691182532559</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>84</v>
+      </c>
+      <c r="J22" t="n">
+        <v>309</v>
+      </c>
+      <c r="K22" t="n">
+        <v>77.27518355581448</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>949183172.8880422</v>
+        <v>1338043994.190142</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1241339363864737</v>
+        <v>0.1281468094248487</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05120067981758466</v>
+        <v>0.03667855953646505</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2745546132.309175</v>
+        <v>3762197274.357595</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1371934220903366</v>
+        <v>0.1014712504600391</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03090187549627053</v>
+        <v>0.032918939702621</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>92</v>
+      </c>
+      <c r="J24" t="n">
+        <v>309</v>
+      </c>
+      <c r="K24" t="n">
+        <v>77.90952253116787</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>981927366.4605409</v>
+        <v>1225118477.906692</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1018055434111596</v>
+        <v>0.09118918845107073</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02182504486572314</v>
+        <v>0.02602300665718124</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1176108015.106019</v>
+        <v>1413066603.217427</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1195339392131528</v>
+        <v>0.09186994955860051</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02893783430174113</v>
+        <v>0.02965111128626246</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3839435306.377757</v>
+        <v>2990846709.506113</v>
       </c>
       <c r="F27" t="n">
-        <v>0.111337507165093</v>
+        <v>0.1325929374763017</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02071287559708303</v>
+        <v>0.0207993860525332</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>129</v>
+      </c>
+      <c r="J27" t="n">
+        <v>309</v>
+      </c>
+      <c r="K27" t="n">
+        <v>50.19721344422522</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3690352116.218894</v>
+        <v>3237914662.943456</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1398669615741897</v>
+        <v>0.09934586621505258</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04603283403786234</v>
+        <v>0.03820357910995291</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="n">
+        <v>72.66917197959056</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3886112196.96385</v>
+        <v>3677301021.184894</v>
       </c>
       <c r="F29" t="n">
-        <v>0.107331232691411</v>
+        <v>0.1420223008324776</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04199650795505996</v>
+        <v>0.03482033947287747</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>289</v>
+      </c>
+      <c r="J29" t="n">
+        <v>310</v>
+      </c>
+      <c r="K29" t="n">
+        <v>80.74388647490434</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1486595151.844842</v>
+        <v>1719085335.269628</v>
       </c>
       <c r="F30" t="n">
-        <v>0.092094921061281</v>
+        <v>0.1356881845441909</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03431553507738273</v>
+        <v>0.03487997724805464</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>926860801.9549352</v>
+        <v>918654982.3033019</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08628362193664992</v>
+        <v>0.1119622860073216</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04172821655271166</v>
+        <v>0.03755630191145159</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1563,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1519851998.759951</v>
+        <v>1433755999.931172</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0968835596011962</v>
+        <v>0.116053533500638</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03075061519396466</v>
+        <v>0.02626354365212965</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2117590063.77134</v>
+        <v>3105713554.974718</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1863922278744096</v>
+        <v>0.189768301108467</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06032873349365091</v>
+        <v>0.0437637879788146</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>983583620.4232948</v>
+        <v>1252206081.658336</v>
       </c>
       <c r="F34" t="n">
-        <v>0.100836471946509</v>
+        <v>0.09891389454029602</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01752464068041761</v>
+        <v>0.01949961570448821</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1074354037.334174</v>
+        <v>909472079.1193097</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1070540668842917</v>
+        <v>0.1028446548567487</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02920845238699748</v>
+        <v>0.04126895691329953</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1709,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2644370089.433967</v>
+        <v>2868574927.896034</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1578873385555455</v>
+        <v>0.134317180187468</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02188950766101028</v>
+        <v>0.0283210818092668</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2453814909.943685</v>
+        <v>2186115974.70082</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09708545391469403</v>
+        <v>0.1029920426415815</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02779774804976471</v>
+        <v>0.03837660910316228</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2075671947.856294</v>
+        <v>1417356996.298035</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1108039107388205</v>
+        <v>0.0862980354559012</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03616183698783888</v>
+        <v>0.03876951854390903</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1814,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2189721734.414859</v>
+        <v>1732883803.170593</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1607863748484357</v>
+        <v>0.1519669201356922</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0321902936915489</v>
+        <v>0.02087033780089208</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1849,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1279372344.290961</v>
+        <v>1824091090.060199</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1213253675418696</v>
+        <v>0.1297610037275865</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04803658597088113</v>
+        <v>0.03999692950725981</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1884,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2018835171.201091</v>
+        <v>1870681956.671419</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1445441719330448</v>
+        <v>0.1580869665504549</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03657399254452531</v>
+        <v>0.03601903446185415</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1913,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3917383303.247466</v>
+        <v>3646161444.524183</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09168933595854667</v>
+        <v>0.1206793700830224</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04669605123373886</v>
+        <v>0.04458723656632178</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>128</v>
+      </c>
+      <c r="J42" t="n">
+        <v>310</v>
+      </c>
+      <c r="K42" t="n">
+        <v>91.3375792456315</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2053001828.454057</v>
+        <v>2987863930.037432</v>
       </c>
       <c r="F43" t="n">
-        <v>0.196730181822843</v>
+        <v>0.1718956978394709</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01574605251637853</v>
+        <v>0.01973582593805898</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1975976539.394875</v>
+        <v>1858920599.628669</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09412358224180402</v>
+        <v>0.09581237370332299</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02647579660468083</v>
+        <v>0.03647342789929427</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2026,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1745530475.848205</v>
+        <v>2407004898.494962</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1711917176849357</v>
+        <v>0.1611681242406598</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04684327941756421</v>
+        <v>0.03949047641631581</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4022906934.413539</v>
+        <v>5037731145.620463</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1292950668867552</v>
+        <v>0.1629005186203034</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04629188765423954</v>
+        <v>0.0464510037891702</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>185</v>
+      </c>
+      <c r="J46" t="n">
+        <v>310</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2096,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4448311742.179666</v>
+        <v>3421479708.877591</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1616787306593979</v>
+        <v>0.1771302183596442</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04473044984955049</v>
+        <v>0.05586822792850362</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>138</v>
+      </c>
+      <c r="J47" t="n">
+        <v>308</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3414409836.092454</v>
+        <v>3571005522.631433</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0850132565554729</v>
+        <v>0.06636221006149079</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02581128189975059</v>
+        <v>0.02664296403729923</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>155</v>
+      </c>
+      <c r="J48" t="n">
+        <v>310</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1687017920.43104</v>
+        <v>1566419992.702344</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1591940835278481</v>
+        <v>0.1221678035209109</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03015773661243573</v>
+        <v>0.0363935938137347</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3895655464.512568</v>
+        <v>3924851300.26745</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1539468665287352</v>
+        <v>0.1470228903234442</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03463360206148038</v>
+        <v>0.03493238754399738</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>98</v>
+      </c>
+      <c r="J50" t="n">
+        <v>310</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1392464392.124475</v>
+        <v>1344541343.599956</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1843056473866413</v>
+        <v>0.1368989951254234</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03626028170413146</v>
+        <v>0.03674327703644161</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3450123337.225343</v>
+        <v>4052833816.634313</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0938264300099919</v>
+        <v>0.1082031114396954</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04863501411985604</v>
+        <v>0.04370632912656607</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>189</v>
+      </c>
+      <c r="J52" t="n">
+        <v>310</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3531196008.390409</v>
+        <v>3499752331.711154</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1247392786154949</v>
+        <v>0.1298461018620681</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03422878836734222</v>
+        <v>0.03139113383025408</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>43</v>
+      </c>
+      <c r="J53" t="n">
+        <v>306</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4596612833.653752</v>
+        <v>3506606773.635897</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1517290933206084</v>
+        <v>0.1111600945207726</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03696566478070028</v>
+        <v>0.04827568853793499</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>162</v>
+      </c>
+      <c r="J54" t="n">
+        <v>308</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3469122709.492952</v>
+        <v>4038893418.099316</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1529606713148373</v>
+        <v>0.2198065108298733</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02661227638091499</v>
+        <v>0.02962845110927788</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>142</v>
+      </c>
+      <c r="J55" t="n">
+        <v>310</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1722298984.983466</v>
+        <v>1554009719.155737</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1469516735696684</v>
+        <v>0.1069650364176169</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03865369162323158</v>
+        <v>0.0492042682075399</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3062425848.421234</v>
+        <v>4203766428.121225</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1583206685566298</v>
+        <v>0.160950368788571</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0243302341189495</v>
+        <v>0.0265996328801281</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>127</v>
+      </c>
+      <c r="J57" t="n">
+        <v>310</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1608534481.560771</v>
+        <v>1235779551.648224</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1781374746028057</v>
+        <v>0.1528389979871142</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0270465890239598</v>
+        <v>0.03791904107264706</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3339517689.054772</v>
+        <v>4532779328.163015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1061329359482029</v>
+        <v>0.1033946592041613</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0318617835062894</v>
+        <v>0.04130014582773719</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>150</v>
+      </c>
+      <c r="J59" t="n">
+        <v>309</v>
+      </c>
+      <c r="K59" t="n">
+        <v>75.48931364110402</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2865933494.714008</v>
+        <v>3574371391.388071</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1266678624694675</v>
+        <v>0.1534918479355503</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02746031234390343</v>
+        <v>0.03102374321768412</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>53</v>
+      </c>
+      <c r="J60" t="n">
+        <v>310</v>
+      </c>
+      <c r="K60" t="n">
+        <v>92.72606110626708</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2265008679.29489</v>
+        <v>2505089002.349595</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1282431039141402</v>
+        <v>0.1767365045307308</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02217133291059854</v>
+        <v>0.02913866116165411</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1902169109.111487</v>
+        <v>1986782524.020297</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1379794475658939</v>
+        <v>0.1393901899198245</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03947447432992319</v>
+        <v>0.03346090065759737</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3748315874.014482</v>
+        <v>5470533579.722522</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09889202126503056</v>
+        <v>0.09664160832361407</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03842603247073575</v>
+        <v>0.03448984899978392</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>151</v>
+      </c>
+      <c r="J63" t="n">
+        <v>309</v>
+      </c>
+      <c r="K63" t="n">
+        <v>77.81648376562568</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4711361180.095961</v>
+        <v>5156108724.982652</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1879021880243396</v>
+        <v>0.12314983000035</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03505468457039815</v>
+        <v>0.03446579004085195</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>152</v>
+      </c>
+      <c r="J64" t="n">
+        <v>310</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5095818379.790315</v>
+        <v>4558731024.215285</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1622490659524097</v>
+        <v>0.1391926133259996</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03161590904395487</v>
+        <v>0.0281091068522738</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>245</v>
+      </c>
+      <c r="J65" t="n">
+        <v>310</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5233055287.055638</v>
+        <v>5432551424.438684</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1072356611626996</v>
+        <v>0.09939698346506609</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0430796404407791</v>
+        <v>0.04783258664793576</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>153</v>
+      </c>
+      <c r="J66" t="n">
+        <v>309</v>
+      </c>
+      <c r="K66" t="n">
+        <v>73.3604485281507</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2469790279.385041</v>
+        <v>3442475752.910271</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06283460518773293</v>
+        <v>0.08103879049672072</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04270465836541039</v>
+        <v>0.04206666179670447</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5977179498.058612</v>
+        <v>4585150701.751478</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1057505494387274</v>
+        <v>0.1417417267791082</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05152023933191143</v>
+        <v>0.04047040893250904</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>166</v>
+      </c>
+      <c r="J68" t="n">
+        <v>310</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1957933460.407505</v>
+        <v>1782417645.181406</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1276919408815372</v>
+        <v>0.140081351063804</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05274440984583563</v>
+        <v>0.05423654891535182</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2599004189.010923</v>
+        <v>2400815079.101698</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09323068448889427</v>
+        <v>0.06785192555172254</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03329322604980497</v>
+        <v>0.04700285379002906</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3806688242.776025</v>
+        <v>5115642928.466547</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1547852008931264</v>
+        <v>0.1284846610038566</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0285340122471664</v>
+        <v>0.02960331251082835</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>230</v>
+      </c>
+      <c r="J71" t="n">
+        <v>310</v>
+      </c>
+      <c r="K71" t="n">
+        <v>81.0893357436469</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1420300435.44075</v>
+        <v>2036554987.250678</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1020325635177674</v>
+        <v>0.1072034893019765</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04821009341959195</v>
+        <v>0.03857685533927364</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2887013193.629942</v>
+        <v>2206245190.058654</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09465168509233794</v>
+        <v>0.07362693036805013</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04923898385667237</v>
+        <v>0.0450532804164968</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>23</v>
+      </c>
+      <c r="J73" t="n">
+        <v>309</v>
+      </c>
+      <c r="K73" t="n">
+        <v>38.40885297337856</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3573851076.103135</v>
+        <v>2624317468.02356</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1836390043866394</v>
+        <v>0.1337045156038917</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02858454074964805</v>
+        <v>0.03151989570281281</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2435911431.852265</v>
+        <v>2474124502.669746</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1569696178795927</v>
+        <v>0.147477125464537</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02551731968423384</v>
+        <v>0.03278981286987744</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5076410728.985009</v>
+        <v>4770657021.098502</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1049022302062377</v>
+        <v>0.09092741860190644</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02715679262481128</v>
+        <v>0.02377497981792073</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>146</v>
+      </c>
+      <c r="J76" t="n">
+        <v>309</v>
+      </c>
+      <c r="K76" t="n">
+        <v>74.05964305103646</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2303695017.88813</v>
+        <v>1596056262.699896</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1594594478017598</v>
+        <v>0.1171673824973042</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02055239141564081</v>
+        <v>0.02696973665280737</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4615379692.783508</v>
+        <v>3747215708.875298</v>
       </c>
       <c r="F78" t="n">
-        <v>0.131046012255758</v>
+        <v>0.1083026236140061</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03487004936061367</v>
+        <v>0.0502011881352383</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>154</v>
+      </c>
+      <c r="J78" t="n">
+        <v>309</v>
+      </c>
+      <c r="K78" t="n">
+        <v>79.41874614141977</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1357002744.899471</v>
+        <v>1424881096.992558</v>
       </c>
       <c r="F79" t="n">
-        <v>0.128157267038662</v>
+        <v>0.1593026517089859</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03666102580954132</v>
+        <v>0.03898509639409041</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5317688062.308223</v>
+        <v>5319730532.979272</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09926176661421604</v>
+        <v>0.08116581953501682</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03035536309277977</v>
+        <v>0.03048542144819544</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>151</v>
+      </c>
+      <c r="J80" t="n">
+        <v>310</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4050317765.323648</v>
+        <v>4137932375.062621</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09024890591026417</v>
+        <v>0.08522926153615781</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02006508941317215</v>
+        <v>0.02314140229669972</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>143</v>
+      </c>
+      <c r="J81" t="n">
+        <v>309</v>
+      </c>
+      <c r="K81" t="n">
+        <v>72.4373087095462</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5267955031.985305</v>
+        <v>5555565372.459584</v>
       </c>
       <c r="F82" t="n">
-        <v>0.187705050238867</v>
+        <v>0.1759138138241982</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02439472045382718</v>
+        <v>0.02609195564020641</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>225</v>
+      </c>
+      <c r="J82" t="n">
+        <v>310</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1940986519.829976</v>
+        <v>2377858472.48538</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1437590754451115</v>
+        <v>0.1268622069683177</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0381870349921846</v>
+        <v>0.0435495984956434</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2083738455.529174</v>
+        <v>1947414753.478306</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1105462677748443</v>
+        <v>0.102815228168444</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04708308888055189</v>
+        <v>0.0373669987008699</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3531512979.251509</v>
+        <v>3297742111.190824</v>
       </c>
       <c r="F85" t="n">
-        <v>0.173507341379764</v>
+        <v>0.1571554986277488</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0435680448521508</v>
+        <v>0.05009114454136346</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2715489411.29795</v>
+        <v>2590928480.463589</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1167743985510833</v>
+        <v>0.1704445256539254</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01886185607383625</v>
+        <v>0.02098722077843131</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>988696663.9802368</v>
+        <v>1144930359.879735</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1537767802320706</v>
+        <v>0.1257987856356664</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02745662586488178</v>
+        <v>0.04374090624745576</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2374168874.584816</v>
+        <v>2487483003.034855</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1535249596378161</v>
+        <v>0.1196649570877618</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03805451703383714</v>
+        <v>0.02995984354038601</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2583558663.952751</v>
+        <v>2406243366.149579</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1170027813959521</v>
+        <v>0.1575371536202877</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02623930347022502</v>
+        <v>0.03112041905289577</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1837514141.007084</v>
+        <v>2099138962.425524</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1297390698266271</v>
+        <v>0.1132027370411119</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04829637999769753</v>
+        <v>0.03608470612151842</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1360993552.896576</v>
+        <v>1790322885.04511</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1901112148494743</v>
+        <v>0.1242809638610423</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0611594306949267</v>
+        <v>0.05310567399380346</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2092969655.027763</v>
+        <v>1887726571.589162</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0988825116712312</v>
+        <v>0.06955496056024998</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03594766798282249</v>
+        <v>0.0406166020234629</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4921371989.832272</v>
+        <v>3883973813.043325</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08926855669274004</v>
+        <v>0.1394452190332882</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04052772767669154</v>
+        <v>0.05457685057974095</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>138</v>
+      </c>
+      <c r="J93" t="n">
+        <v>310</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2381985391.388662</v>
+        <v>2397068185.38008</v>
       </c>
       <c r="F94" t="n">
-        <v>0.130556053778056</v>
+        <v>0.1534104747867665</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04002464123545265</v>
+        <v>0.03266717284395576</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2480863942.729235</v>
+        <v>2954687752.213312</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1195687059854937</v>
+        <v>0.1356015781962997</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04009329453280111</v>
+        <v>0.04809434503958981</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1828492629.14275</v>
+        <v>1885088479.050646</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1170917747616137</v>
+        <v>0.1001549755551368</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03065032993692575</v>
+        <v>0.02865037323647763</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3742913107.042212</v>
+        <v>4052420184.459302</v>
       </c>
       <c r="F97" t="n">
-        <v>0.126743280319513</v>
+        <v>0.1499873896609107</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02697523446845675</v>
+        <v>0.0267477601808424</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>157</v>
+      </c>
+      <c r="J97" t="n">
+        <v>309</v>
+      </c>
+      <c r="K97" t="n">
+        <v>79.44105975328307</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3716933983.245078</v>
+        <v>3417669716.258942</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09760685665939134</v>
+        <v>0.104856744474499</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03117436147738751</v>
+        <v>0.02684365572450515</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>76</v>
+      </c>
+      <c r="J98" t="n">
+        <v>306</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2713786531.646965</v>
+        <v>2526985751.884278</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1124423021884891</v>
+        <v>0.1036420739812955</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02669835459916564</v>
+        <v>0.02462045020651944</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2902264167.801053</v>
+        <v>4144850083.216361</v>
       </c>
       <c r="F100" t="n">
-        <v>0.108212383290211</v>
+        <v>0.1635660430113629</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0207193784069384</v>
+        <v>0.02535013278589409</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>134</v>
+      </c>
+      <c r="J100" t="n">
+        <v>310</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3567245251.941527</v>
+        <v>3507090537.037442</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1546855894929402</v>
+        <v>0.1361748189332845</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03601235938586195</v>
+        <v>0.05579229269374204</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
